--- a/biology/Médecine/Os_membraneux/Os_membraneux.xlsx
+++ b/biology/Médecine/Os_membraneux/Os_membraneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un os membraneux (ou os dermique) est une structure osseuse issue d'une ossification endoconjonctive sans formation de cartilage comme pour l'os endochondral.
 L'os membraneux se forme dans le derme et se développe uniquement par accrétion, la partie externe de l'os est déposée par les ostéoblastes.
@@ -512,7 +524,9 @@
           <t>Anatomie humaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le squelette humain, les os membraneux se retrouvent dans le crâne et forment le desmocrane :
 l'écaille de l’os temporal,
@@ -551,7 +565,9 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os membraneux se retrouvent dans le squelette de tous les vertébrés en particulier dans le toit du crâne ou dans les mâchoires.
 Chez les poissons osseux, les branchies et les nageoires sont constituées d'os membraneux.
@@ -584,10 +600,12 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fonction des os membraneux est souvent protectrice (crânes, carapaces)[1],[2],[3]. Mais ils peuvent également avoir des fonctions de régulation thermique comme observés chez les crocodiliens[4] ou encore d'équilibrage physico-chimique comme fonction tampon de l'acidose respiratoire provoquée par une apnée prolongée comme observés chez des crocodiliens et des tortues[5],[6].
-Ces deux dernières fonctions reposent sur la mise en place d’un réseau de vaisseaux sanguins au sein ou juste au-dessus des os membraneux[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fonction des os membraneux est souvent protectrice (crânes, carapaces). Mais ils peuvent également avoir des fonctions de régulation thermique comme observés chez les crocodiliens ou encore d'équilibrage physico-chimique comme fonction tampon de l'acidose respiratoire provoquée par une apnée prolongée comme observés chez des crocodiliens et des tortues,.
+Ces deux dernières fonctions reposent sur la mise en place d’un réseau de vaisseaux sanguins au sein ou juste au-dessus des os membraneux.
 </t>
         </is>
       </c>
